--- a/site/interactives/list/data/multiple-stack.xlsx
+++ b/site/interactives/list/data/multiple-stack.xlsx
@@ -104,10 +104,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -414,13 +413,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="G86" sqref="G86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.7109375" customWidth="1"/>
     <col min="8" max="8" width="15.28515625" customWidth="1"/>
@@ -440,7 +439,7 @@
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -451,7 +450,7 @@
       <c r="B2">
         <v>2004</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>2096901.19</v>
       </c>
       <c r="F2" s="1"/>
@@ -471,7 +470,7 @@
       <c r="B3">
         <v>2004</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>474400</v>
       </c>
       <c r="F3" s="1"/>
@@ -491,7 +490,7 @@
       <c r="B4">
         <v>2004</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="2"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -509,7 +508,7 @@
       <c r="B5">
         <v>2004</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>143710.01</v>
       </c>
       <c r="F5" s="1"/>
@@ -529,7 +528,7 @@
       <c r="B6">
         <v>2004</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>68164.159999999931</v>
       </c>
       <c r="F6" s="1"/>
@@ -549,7 +548,7 @@
       <c r="B7">
         <v>2004</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>33839.659999999989</v>
       </c>
       <c r="F7" s="1"/>
@@ -569,7 +568,7 @@
       <c r="B8">
         <v>2004</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>235209.83000000002</v>
       </c>
       <c r="F8" s="1"/>
@@ -589,7 +588,7 @@
       <c r="B9">
         <v>2004</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>207421.61000000002</v>
       </c>
       <c r="F9" s="1"/>
@@ -609,7 +608,7 @@
       <c r="B10">
         <v>2004</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>371101.9800000001</v>
       </c>
       <c r="F10" s="1"/>
@@ -629,7 +628,7 @@
       <c r="B11">
         <v>2005</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>2598377.6900000004</v>
       </c>
       <c r="F11" s="1"/>
@@ -649,7 +648,7 @@
       <c r="B12">
         <v>2005</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>262412.54000000004</v>
       </c>
     </row>
@@ -660,7 +659,7 @@
       <c r="B13">
         <v>2005</v>
       </c>
-      <c r="C13" s="3"/>
+      <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -669,7 +668,7 @@
       <c r="B14">
         <v>2005</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>86470.01999999999</v>
       </c>
     </row>
@@ -680,7 +679,7 @@
       <c r="B15">
         <v>2005</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>50484.799999999981</v>
       </c>
     </row>
@@ -691,7 +690,7 @@
       <c r="B16">
         <v>2005</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <v>1079.98</v>
       </c>
     </row>
@@ -702,7 +701,7 @@
       <c r="B17">
         <v>2005</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <v>252828.64</v>
       </c>
     </row>
@@ -713,7 +712,7 @@
       <c r="B18">
         <v>2005</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <v>232470.09</v>
       </c>
     </row>
@@ -724,7 +723,7 @@
       <c r="B19">
         <v>2005</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="2">
         <v>301990.96000000002</v>
       </c>
     </row>
@@ -735,7 +734,7 @@
       <c r="B20">
         <v>2006</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <v>1696827.19</v>
       </c>
     </row>
@@ -746,7 +745,7 @@
       <c r="B21">
         <v>2006</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <v>249910</v>
       </c>
     </row>
@@ -757,7 +756,7 @@
       <c r="B22">
         <v>2006</v>
       </c>
-      <c r="C22" s="3"/>
+      <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -766,7 +765,7 @@
       <c r="B23">
         <v>2006</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <v>71880</v>
       </c>
     </row>
@@ -777,7 +776,7 @@
       <c r="B24">
         <v>2006</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="2">
         <v>11390.04</v>
       </c>
     </row>
@@ -788,7 +787,7 @@
       <c r="B25">
         <v>2006</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="2">
         <v>2730</v>
       </c>
     </row>
@@ -799,7 +798,7 @@
       <c r="B26">
         <v>2006</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="2">
         <v>248158.04999999981</v>
       </c>
     </row>
@@ -810,7 +809,7 @@
       <c r="B27">
         <v>2006</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="2">
         <v>191650</v>
       </c>
     </row>
@@ -821,7 +820,7 @@
       <c r="B28">
         <v>2006</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="2">
         <v>364825</v>
       </c>
     </row>
@@ -832,7 +831,7 @@
       <c r="B29">
         <v>2007</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="2">
         <v>1669734</v>
       </c>
     </row>
@@ -843,7 +842,7 @@
       <c r="B30">
         <v>2007</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="2">
         <v>192000</v>
       </c>
     </row>
@@ -854,7 +853,7 @@
       <c r="B31">
         <v>2007</v>
       </c>
-      <c r="C31" s="3"/>
+      <c r="C31" s="2"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -863,7 +862,7 @@
       <c r="B32">
         <v>2007</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="2">
         <v>80409.989999999991</v>
       </c>
     </row>
@@ -874,7 +873,7 @@
       <c r="B33">
         <v>2007</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="2">
         <v>8452.4800000000014</v>
       </c>
     </row>
@@ -885,7 +884,7 @@
       <c r="B34">
         <v>2007</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="2">
         <v>1010.9499999999999</v>
       </c>
     </row>
@@ -896,7 +895,7 @@
       <c r="B35">
         <v>2007</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="2">
         <v>179210.17000000013</v>
       </c>
     </row>
@@ -907,7 +906,7 @@
       <c r="B36">
         <v>2007</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="2">
         <v>198600</v>
       </c>
     </row>
@@ -918,7 +917,7 @@
       <c r="B37">
         <v>2007</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="2">
         <v>166992.99999999997</v>
       </c>
     </row>
@@ -929,7 +928,7 @@
       <c r="B38">
         <v>2008</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="2">
         <v>1988040</v>
       </c>
     </row>
@@ -940,7 +939,7 @@
       <c r="B39">
         <v>2008</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="2">
         <v>203760</v>
       </c>
     </row>
@@ -951,7 +950,7 @@
       <c r="B40">
         <v>2008</v>
       </c>
-      <c r="C40" s="3"/>
+      <c r="C40" s="2"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
@@ -960,7 +959,7 @@
       <c r="B41">
         <v>2008</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="2">
         <v>46940</v>
       </c>
     </row>
@@ -971,7 +970,7 @@
       <c r="B42">
         <v>2008</v>
       </c>
-      <c r="C42" s="3"/>
+      <c r="C42" s="2"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
@@ -980,7 +979,7 @@
       <c r="B43">
         <v>2008</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="2">
         <v>269.99</v>
       </c>
     </row>
@@ -991,7 +990,7 @@
       <c r="B44">
         <v>2008</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="2">
         <v>173618.94000000012</v>
       </c>
     </row>
@@ -1002,7 +1001,7 @@
       <c r="B45">
         <v>2008</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="2">
         <v>251980</v>
       </c>
     </row>
@@ -1013,7 +1012,7 @@
       <c r="B46">
         <v>2008</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46" s="2">
         <v>175870</v>
       </c>
     </row>
@@ -1024,7 +1023,7 @@
       <c r="B47">
         <v>2009</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="2">
         <v>1889501</v>
       </c>
     </row>
@@ -1035,7 +1034,7 @@
       <c r="B48">
         <v>2009</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48" s="2">
         <v>182130</v>
       </c>
     </row>
@@ -1046,7 +1045,7 @@
       <c r="B49">
         <v>2009</v>
       </c>
-      <c r="C49" s="3"/>
+      <c r="C49" s="2"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
@@ -1055,7 +1054,7 @@
       <c r="B50">
         <v>2009</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50" s="2">
         <v>120689.98999999999</v>
       </c>
     </row>
@@ -1066,7 +1065,7 @@
       <c r="B51">
         <v>2009</v>
       </c>
-      <c r="C51" s="3"/>
+      <c r="C51" s="2"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
@@ -1075,7 +1074,7 @@
       <c r="B52">
         <v>2009</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C52" s="2">
         <v>309.95999999999998</v>
       </c>
     </row>
@@ -1086,7 +1085,7 @@
       <c r="B53">
         <v>2009</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C53" s="2">
         <v>153039.89999999997</v>
       </c>
     </row>
@@ -1097,7 +1096,7 @@
       <c r="B54">
         <v>2009</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C54" s="2">
         <v>233770</v>
       </c>
     </row>
@@ -1108,7 +1107,7 @@
       <c r="B55">
         <v>2009</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C55" s="2">
         <v>226900</v>
       </c>
     </row>
@@ -1119,7 +1118,7 @@
       <c r="B56">
         <v>2010</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C56" s="2">
         <v>1566595</v>
       </c>
     </row>
@@ -1130,7 +1129,7 @@
       <c r="B57">
         <v>2010</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C57" s="2">
         <v>96390</v>
       </c>
     </row>
@@ -1141,7 +1140,7 @@
       <c r="B58">
         <v>2010</v>
       </c>
-      <c r="C58" s="3"/>
+      <c r="C58" s="2"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
@@ -1150,7 +1149,7 @@
       <c r="B59">
         <v>2010</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C59" s="2">
         <v>148350</v>
       </c>
     </row>
@@ -1161,7 +1160,7 @@
       <c r="B60">
         <v>2010</v>
       </c>
-      <c r="C60" s="3"/>
+      <c r="C60" s="2"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
@@ -1170,7 +1169,7 @@
       <c r="B61">
         <v>2010</v>
       </c>
-      <c r="C61" s="3">
+      <c r="C61" s="2">
         <v>1010.01</v>
       </c>
     </row>
@@ -1181,7 +1180,7 @@
       <c r="B62">
         <v>2010</v>
       </c>
-      <c r="C62" s="3">
+      <c r="C62" s="2">
         <v>147940.08999999997</v>
       </c>
     </row>
@@ -1192,7 +1191,7 @@
       <c r="B63">
         <v>2010</v>
       </c>
-      <c r="C63" s="3">
+      <c r="C63" s="2">
         <v>171150</v>
       </c>
     </row>
@@ -1203,7 +1202,7 @@
       <c r="B64">
         <v>2010</v>
       </c>
-      <c r="C64" s="3">
+      <c r="C64" s="2">
         <v>206970</v>
       </c>
     </row>
@@ -1214,7 +1213,7 @@
       <c r="B65">
         <v>2011</v>
       </c>
-      <c r="C65" s="3">
+      <c r="C65" s="2">
         <v>1107419</v>
       </c>
     </row>
@@ -1225,7 +1224,7 @@
       <c r="B66">
         <v>2011</v>
       </c>
-      <c r="C66" s="3">
+      <c r="C66" s="2">
         <v>129180</v>
       </c>
     </row>
@@ -1236,7 +1235,7 @@
       <c r="B67">
         <v>2011</v>
       </c>
-      <c r="C67" s="3">
+      <c r="C67" s="2">
         <v>990.03899999999999</v>
       </c>
     </row>
@@ -1247,7 +1246,7 @@
       <c r="B68">
         <v>2011</v>
       </c>
-      <c r="C68" s="3">
+      <c r="C68" s="2">
         <v>93019.989999999991</v>
       </c>
     </row>
@@ -1258,7 +1257,7 @@
       <c r="B69">
         <v>2011</v>
       </c>
-      <c r="C69" s="3"/>
+      <c r="C69" s="2"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
@@ -1267,7 +1266,7 @@
       <c r="B70">
         <v>2011</v>
       </c>
-      <c r="C70" s="3">
+      <c r="C70" s="2">
         <v>629.98300000000006</v>
       </c>
     </row>
@@ -1278,7 +1277,7 @@
       <c r="B71">
         <v>2011</v>
       </c>
-      <c r="C71" s="3">
+      <c r="C71" s="2">
         <v>166078.03099999999</v>
       </c>
     </row>
@@ -1289,7 +1288,7 @@
       <c r="B72">
         <v>2011</v>
       </c>
-      <c r="C72" s="3">
+      <c r="C72" s="2">
         <v>175016.8</v>
       </c>
     </row>
@@ -1300,7 +1299,7 @@
       <c r="B73">
         <v>2011</v>
       </c>
-      <c r="C73" s="3">
+      <c r="C73" s="2">
         <v>136290</v>
       </c>
     </row>
@@ -1311,7 +1310,7 @@
       <c r="B74">
         <v>2012</v>
       </c>
-      <c r="C74" s="3">
+      <c r="C74" s="2">
         <v>1251460.0009999999</v>
       </c>
     </row>
@@ -1322,7 +1321,7 @@
       <c r="B75">
         <v>2012</v>
       </c>
-      <c r="C75" s="3">
+      <c r="C75" s="2">
         <v>48510</v>
       </c>
     </row>
@@ -1333,7 +1332,7 @@
       <c r="B76">
         <v>2012</v>
       </c>
-      <c r="C76" s="3">
+      <c r="C76" s="2">
         <v>830.01600000000008</v>
       </c>
     </row>
@@ -1344,7 +1343,7 @@
       <c r="B77">
         <v>2012</v>
       </c>
-      <c r="C77" s="3">
+      <c r="C77" s="2">
         <v>57260.012999999999</v>
       </c>
     </row>
@@ -1355,7 +1354,7 @@
       <c r="B78">
         <v>2012</v>
       </c>
-      <c r="C78" s="3"/>
+      <c r="C78" s="2"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
@@ -1364,7 +1363,7 @@
       <c r="B79">
         <v>2012</v>
       </c>
-      <c r="C79" s="3">
+      <c r="C79" s="2">
         <v>980</v>
       </c>
     </row>
@@ -1375,7 +1374,7 @@
       <c r="B80">
         <v>2012</v>
       </c>
-      <c r="C80" s="3">
+      <c r="C80" s="2">
         <v>85661.344999999928</v>
       </c>
     </row>
@@ -1386,7 +1385,7 @@
       <c r="B81">
         <v>2012</v>
       </c>
-      <c r="C81" s="3">
+      <c r="C81" s="2">
         <v>139780.00099999999</v>
       </c>
     </row>
@@ -1397,7 +1396,7 @@
       <c r="B82">
         <v>2012</v>
       </c>
-      <c r="C82" s="3">
+      <c r="C82" s="2">
         <v>152480</v>
       </c>
     </row>
@@ -1408,7 +1407,7 @@
       <c r="B83">
         <v>2013</v>
       </c>
-      <c r="C83" s="3">
+      <c r="C83" s="2">
         <v>953820.00699999998</v>
       </c>
     </row>
@@ -1419,7 +1418,7 @@
       <c r="B84">
         <v>2013</v>
       </c>
-      <c r="C84" s="3">
+      <c r="C84" s="2">
         <v>49000</v>
       </c>
     </row>
@@ -1430,7 +1429,7 @@
       <c r="B85">
         <v>2013</v>
       </c>
-      <c r="C85" s="3">
+      <c r="C85" s="2">
         <v>3080.0889999999999</v>
       </c>
     </row>
@@ -1441,7 +1440,7 @@
       <c r="B86">
         <v>2013</v>
       </c>
-      <c r="C86" s="3">
+      <c r="C86" s="2">
         <v>25440</v>
       </c>
     </row>
@@ -1452,7 +1451,7 @@
       <c r="B87">
         <v>2013</v>
       </c>
-      <c r="C87" s="3"/>
+      <c r="C87" s="2"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
@@ -1461,7 +1460,7 @@
       <c r="B88">
         <v>2013</v>
       </c>
-      <c r="C88" s="3">
+      <c r="C88" s="2">
         <v>1720.0169999999998</v>
       </c>
     </row>
@@ -1472,7 +1471,7 @@
       <c r="B89">
         <v>2013</v>
       </c>
-      <c r="C89" s="3">
+      <c r="C89" s="2">
         <v>109962.25900000001</v>
       </c>
     </row>
@@ -1483,7 +1482,7 @@
       <c r="B90">
         <v>2013</v>
       </c>
-      <c r="C90" s="3">
+      <c r="C90" s="2">
         <v>149490.02399999998</v>
       </c>
     </row>
@@ -1494,7 +1493,7 @@
       <c r="B91">
         <v>2013</v>
       </c>
-      <c r="C91" s="3">
+      <c r="C91" s="2">
         <v>159800</v>
       </c>
     </row>

--- a/site/interactives/list/data/multiple-stack.xlsx
+++ b/site/interactives/list/data/multiple-stack.xlsx
@@ -17,9 +17,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="12">
-  <si>
-    <t>Year</t>
-  </si>
   <si>
     <t>BULK GRAINS</t>
   </si>
@@ -45,13 +42,16 @@
     <t>PEAS/LENTILS/BEANS</t>
   </si>
   <si>
-    <t>SOY PREPARATIONS/CORN-SOY BLEND</t>
+    <t>SOY PREPARATIONS</t>
   </si>
   <si>
-    <t>Value</t>
+    <t>commodity</t>
   </si>
   <si>
-    <t>Key</t>
+    <t>year</t>
+  </si>
+  <si>
+    <t>metricTon</t>
   </si>
 </sst>
 </file>
@@ -413,8 +413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="G86" sqref="G86"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,18 +434,18 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>2004</v>
@@ -465,7 +465,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>2004</v>
@@ -485,7 +485,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>2004</v>
@@ -503,7 +503,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>2004</v>
@@ -523,7 +523,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>2004</v>
@@ -543,7 +543,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>2004</v>
@@ -563,7 +563,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>2004</v>
@@ -583,7 +583,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>2004</v>
@@ -603,7 +603,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>2004</v>
@@ -623,7 +623,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11">
         <v>2005</v>
@@ -643,7 +643,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12">
         <v>2005</v>
@@ -654,7 +654,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13">
         <v>2005</v>
@@ -663,7 +663,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14">
         <v>2005</v>
@@ -674,7 +674,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15">
         <v>2005</v>
@@ -685,7 +685,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16">
         <v>2005</v>
@@ -696,7 +696,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B17">
         <v>2005</v>
@@ -707,7 +707,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18">
         <v>2005</v>
@@ -718,7 +718,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B19">
         <v>2005</v>
@@ -729,7 +729,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B20">
         <v>2006</v>
@@ -740,7 +740,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B21">
         <v>2006</v>
@@ -751,7 +751,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B22">
         <v>2006</v>
@@ -760,7 +760,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B23">
         <v>2006</v>
@@ -771,7 +771,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B24">
         <v>2006</v>
@@ -782,7 +782,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B25">
         <v>2006</v>
@@ -793,7 +793,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B26">
         <v>2006</v>
@@ -804,7 +804,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B27">
         <v>2006</v>
@@ -815,7 +815,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B28">
         <v>2006</v>
@@ -826,7 +826,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B29">
         <v>2007</v>
@@ -837,7 +837,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B30">
         <v>2007</v>
@@ -848,7 +848,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B31">
         <v>2007</v>
@@ -857,7 +857,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B32">
         <v>2007</v>
@@ -868,7 +868,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B33">
         <v>2007</v>
@@ -879,7 +879,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B34">
         <v>2007</v>
@@ -890,7 +890,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B35">
         <v>2007</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B36">
         <v>2007</v>
@@ -912,7 +912,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B37">
         <v>2007</v>
@@ -923,7 +923,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B38">
         <v>2008</v>
@@ -934,7 +934,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B39">
         <v>2008</v>
@@ -945,7 +945,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B40">
         <v>2008</v>
@@ -954,7 +954,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B41">
         <v>2008</v>
@@ -965,7 +965,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B42">
         <v>2008</v>
@@ -974,7 +974,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B43">
         <v>2008</v>
@@ -985,7 +985,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B44">
         <v>2008</v>
@@ -996,7 +996,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B45">
         <v>2008</v>
@@ -1007,7 +1007,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B46">
         <v>2008</v>
@@ -1018,7 +1018,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B47">
         <v>2009</v>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B48">
         <v>2009</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B49">
         <v>2009</v>
@@ -1049,7 +1049,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B50">
         <v>2009</v>
@@ -1060,7 +1060,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B51">
         <v>2009</v>
@@ -1069,7 +1069,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B52">
         <v>2009</v>
@@ -1080,7 +1080,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B53">
         <v>2009</v>
@@ -1091,7 +1091,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B54">
         <v>2009</v>
@@ -1102,7 +1102,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B55">
         <v>2009</v>
@@ -1113,7 +1113,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B56">
         <v>2010</v>
@@ -1124,7 +1124,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B57">
         <v>2010</v>
@@ -1135,7 +1135,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B58">
         <v>2010</v>
@@ -1144,7 +1144,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B59">
         <v>2010</v>
@@ -1155,7 +1155,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B60">
         <v>2010</v>
@@ -1164,7 +1164,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B61">
         <v>2010</v>
@@ -1175,7 +1175,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B62">
         <v>2010</v>
@@ -1186,7 +1186,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B63">
         <v>2010</v>
@@ -1197,7 +1197,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B64">
         <v>2010</v>
@@ -1208,7 +1208,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B65">
         <v>2011</v>
@@ -1219,7 +1219,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B66">
         <v>2011</v>
@@ -1230,7 +1230,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B67">
         <v>2011</v>
@@ -1241,7 +1241,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B68">
         <v>2011</v>
@@ -1252,7 +1252,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B69">
         <v>2011</v>
@@ -1261,7 +1261,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B70">
         <v>2011</v>
@@ -1272,7 +1272,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B71">
         <v>2011</v>
@@ -1283,7 +1283,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B72">
         <v>2011</v>
@@ -1294,7 +1294,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B73">
         <v>2011</v>
@@ -1305,7 +1305,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B74">
         <v>2012</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B75">
         <v>2012</v>
@@ -1327,7 +1327,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B76">
         <v>2012</v>
@@ -1338,7 +1338,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B77">
         <v>2012</v>
@@ -1349,7 +1349,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B78">
         <v>2012</v>
@@ -1358,7 +1358,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B79">
         <v>2012</v>
@@ -1369,7 +1369,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B80">
         <v>2012</v>
@@ -1380,7 +1380,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B81">
         <v>2012</v>
@@ -1391,7 +1391,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B82">
         <v>2012</v>
@@ -1402,7 +1402,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B83">
         <v>2013</v>
@@ -1413,7 +1413,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B84">
         <v>2013</v>
@@ -1424,7 +1424,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B85">
         <v>2013</v>
@@ -1435,7 +1435,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B86">
         <v>2013</v>
@@ -1446,7 +1446,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B87">
         <v>2013</v>
@@ -1455,7 +1455,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B88">
         <v>2013</v>
@@ -1466,7 +1466,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B89">
         <v>2013</v>
@@ -1477,7 +1477,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B90">
         <v>2013</v>
@@ -1488,7 +1488,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B91">
         <v>2013</v>
